--- a/Result/Q1_particle_count_time_comparison.xlsx
+++ b/Result/Q1_particle_count_time_comparison.xlsx
@@ -470,19 +470,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1876224279403687</v>
+        <v>0.00383453893661499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05098581314086914</v>
+        <v>0.05145314216613769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08468735218048096</v>
+        <v>0.05670441246032715</v>
       </c>
       <c r="E2" t="n">
-        <v>0.004755020141601562</v>
+        <v>0.004495537281036377</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008044242858886719</v>
+        <v>0.007856574535369873</v>
       </c>
     </row>
     <row r="3">
@@ -490,19 +490,19 @@
         <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003658413887023926</v>
+        <v>0.003282730102539063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1494122743606567</v>
+        <v>0.1508022727966309</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1673417091369629</v>
+        <v>0.1695808339118957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005043745040893555</v>
+        <v>0.007148914813995362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00818324089050293</v>
+        <v>0.00795720100402832</v>
       </c>
     </row>
     <row r="4">
@@ -510,19 +510,19 @@
         <v>50</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003678202629089355</v>
+        <v>0.003428949356079102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2462114095687866</v>
+        <v>0.2525600414276123</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2718135118484497</v>
+        <v>0.2775626974105835</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006570219993591309</v>
+        <v>0.007643274307250977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007972836494445801</v>
+        <v>0.008013241291046143</v>
       </c>
     </row>
     <row r="5">
@@ -530,19 +530,19 @@
         <v>100</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003521203994750977</v>
+        <v>0.003638216972351074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4883233308792114</v>
+        <v>0.5086058993339538</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5303312540054321</v>
+        <v>0.5523761458396912</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006994962692260742</v>
+        <v>0.008954582691192627</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007900714874267578</v>
+        <v>0.008414004802703857</v>
       </c>
     </row>
     <row r="6">
@@ -550,19 +550,19 @@
         <v>300</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00357818603515625</v>
+        <v>0.004870406627655029</v>
       </c>
       <c r="C6" t="n">
-        <v>1.494780421257019</v>
+        <v>1.772651313304901</v>
       </c>
       <c r="D6" t="n">
-        <v>1.599078774452209</v>
+        <v>1.925028129577637</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009801387786865234</v>
+        <v>0.01219350719451904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009894728660583496</v>
+        <v>0.01142930126190186</v>
       </c>
     </row>
     <row r="7">
@@ -570,19 +570,19 @@
         <v>500</v>
       </c>
       <c r="B7" t="n">
-        <v>0.004652142524719238</v>
+        <v>0.00631467866897583</v>
       </c>
       <c r="C7" t="n">
-        <v>2.509269595146179</v>
+        <v>3.525307953834534</v>
       </c>
       <c r="D7" t="n">
-        <v>2.68784761428833</v>
+        <v>3.836241670131683</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01181995868682861</v>
+        <v>0.01678674650192261</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0118560791015625</v>
+        <v>0.01520833158493042</v>
       </c>
     </row>
   </sheetData>
